--- a/voortgang en planning/burndown ARD.xlsx
+++ b/voortgang en planning/burndown ARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F499BCE1-1246-476B-8A19-D6F896FCC021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82041242-5284-4651-B023-4F8E9C584364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,15 +292,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,13 +494,13 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1749,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,10 +1891,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1919,7 +1918,9 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1942,8 +1943,8 @@
         <v>1</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
+      <c r="D13" s="2">
+        <v>2</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1956,8 +1957,8 @@
         <v>2</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
+      <c r="D14" s="2">
+        <v>2</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1970,8 +1971,8 @@
         <v>2</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
+      <c r="D15" s="2">
+        <v>2</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1994,8 +1995,8 @@
         <v>2</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
+      <c r="D17" s="2">
+        <v>2</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2008,8 +2009,8 @@
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
+      <c r="D18" s="2">
+        <v>2</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2022,8 +2023,8 @@
         <v>1</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
+      <c r="D19" s="2">
+        <v>2</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2046,8 +2047,8 @@
         <v>1</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
+      <c r="D21" s="2">
+        <v>2</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2060,8 +2061,8 @@
         <v>2</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
+      <c r="D22" s="2">
+        <v>2</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2074,8 +2075,8 @@
         <v>1</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
+      <c r="D23" s="2">
+        <v>2</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2151,8 +2152,8 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
+      <c r="E29" s="2">
+        <v>2</v>
       </c>
       <c r="F29" s="13"/>
     </row>
@@ -2165,8 +2166,8 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>8</v>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,8 +2177,8 @@
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
+      <c r="E31" s="2">
+        <v>2</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -2460,12 +2461,12 @@
       <c r="B55" s="15">
         <v>3</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="17"/>
+      <c r="D55" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -2481,15 +2482,15 @@
       </c>
       <c r="D56" s="2">
         <f>C$56-SUM(D3:D55)</f>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E56" s="2">
         <f>D$56-SUM(E3:E55)</f>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F56" s="2">
         <f>E$56-SUM(F3:F55)</f>
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,19 +2501,19 @@
         <f>B56</f>
         <v>61</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="18">
         <f>B$57-$B$57/COUNTA($C$1:$F$1)</f>
         <v>45.75</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="18">
         <f>C$57-$B$57/COUNTA($C$1:$F$1)</f>
         <v>30.5</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <f>D$57-$B$57/COUNTA($C$1:$F$1)</f>
         <v>15.25</v>
       </c>
-      <c r="F57" s="19">
+      <c r="F57" s="18">
         <f>E$57-$B$57/COUNTA($C$1:$F$1)</f>
         <v>0</v>
       </c>
@@ -2520,25 +2521,12 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="16"/>
       <c r="B58" s="14"/>
-      <c r="C58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
       <c r="B59" s="14"/>
-      <c r="C59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
       <c r="B60" s="14"/>
-      <c r="C60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2549,15 +2537,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2806,15 +2785,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2831,4 +2811,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/voortgang en planning/burndown ARD.xlsx
+++ b/voortgang en planning/burndown ARD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82041242-5284-4651-B023-4F8E9C584364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CEDC9A-3D59-4086-AFBC-2AD8DE02527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t>Taak</t>
   </si>
@@ -494,13 +494,13 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,9 +1878,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,8 +1890,8 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
+      <c r="E9" s="2">
+        <v>2</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1906,8 +1904,8 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
+      <c r="E10" s="2">
+        <v>2</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1918,8 +1916,8 @@
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+      <c r="E11" s="2">
+        <v>2</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2296,8 +2294,8 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>8</v>
+      <c r="E41" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2309,8 +2307,8 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>8</v>
+      <c r="E42" s="2">
+        <v>2</v>
       </c>
       <c r="F42" s="2"/>
     </row>
@@ -2321,8 +2319,8 @@
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>8</v>
+      <c r="E43" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2434,8 +2432,8 @@
         <v>1</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
+      <c r="D53" s="2">
+        <v>2</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2448,8 +2446,8 @@
         <v>3</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>8</v>
+      <c r="D54" s="2">
+        <v>2</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2462,8 +2460,8 @@
         <v>3</v>
       </c>
       <c r="C55" s="17"/>
-      <c r="D55" s="17" t="s">
-        <v>8</v>
+      <c r="D55" s="17">
+        <v>3</v>
       </c>
       <c r="E55" s="17"/>
       <c r="F55" s="17"/>
@@ -2482,15 +2480,15 @@
       </c>
       <c r="D56" s="2">
         <f>C$56-SUM(D3:D55)</f>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2">
         <f>D$56-SUM(E3:E55)</f>
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F56" s="2">
         <f>E$56-SUM(F3:F55)</f>
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,6 +2535,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2785,16 +2792,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2811,12 +2817,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/voortgang en planning/burndown ARD.xlsx
+++ b/voortgang en planning/burndown ARD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoura\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raufa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CEDC9A-3D59-4086-AFBC-2AD8DE02527E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C821DF3-014B-4E81-86C2-48E5B10EEC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Taak</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Repository maken</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Sprint 1</t>
@@ -308,7 +305,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,7 +323,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -396,7 +393,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -488,19 +485,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>51</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,16 +581,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>61</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.75</c:v>
+                  <c:v>53.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.25</c:v>
+                  <c:v>17.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -675,7 +672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -734,7 +731,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -786,7 +783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -823,7 +820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1432,7 +1429,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1750,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,16 +1764,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1787,21 +1784,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -1829,7 +1826,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1871,7 +1868,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -1897,7 +1894,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1905,15 +1902,17 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
@@ -1923,7 +1922,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -1935,21 +1934,21 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -1963,7 +1962,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -1977,7 +1976,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -1987,7 +1986,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -2001,35 +2000,35 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -2039,21 +2038,21 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2067,21 +2066,21 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2091,49 +2090,49 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
+      <c r="D25" s="2">
+        <v>3</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
+      <c r="D26" s="2">
+        <v>2</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
+      <c r="D27" s="2">
+        <v>2</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -2143,7 +2142,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1">
         <v>2</v>
@@ -2157,7 +2156,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
         <v>2</v>
@@ -2170,9 +2169,11 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -2182,7 +2183,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -2191,45 +2192,47 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
         <v>2</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>8</v>
+      <c r="E33" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
+      <c r="E34" s="2">
+        <v>1</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>8</v>
+      <c r="E35" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -2239,45 +2242,47 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1">
         <v>2</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>8</v>
+      <c r="E37" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>8</v>
+      <c r="E38" s="2">
+        <v>1</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>8</v>
+      <c r="E39" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -2287,7 +2292,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1">
         <v>2</v>
@@ -2300,7 +2305,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2308,15 +2313,17 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2">
@@ -2325,7 +2332,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -2335,42 +2342,48 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="2"/>
@@ -2380,43 +2393,49 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
@@ -2426,35 +2445,35 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1">
         <v>1</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55" s="15">
         <v>3</v>
@@ -2472,23 +2491,23 @@
       </c>
       <c r="B56" s="1">
         <f>SUM(B3:B55)</f>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2">
         <f>B$56-SUM(C3:C55)</f>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2">
         <f>C$56-SUM(D3:D55)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E56" s="2">
         <f>D$56-SUM(E3:E55)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2">
         <f>E$56-SUM(F3:F55)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,19 +2516,19 @@
       </c>
       <c r="B57" s="1">
         <f>B56</f>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C57" s="18">
         <f>B$57-$B$57/COUNTA($C$1:$F$1)</f>
-        <v>45.75</v>
+        <v>53.25</v>
       </c>
       <c r="D57" s="18">
         <f>C$57-$B$57/COUNTA($C$1:$F$1)</f>
-        <v>30.5</v>
+        <v>35.5</v>
       </c>
       <c r="E57" s="18">
         <f>D$57-$B$57/COUNTA($C$1:$F$1)</f>
-        <v>15.25</v>
+        <v>17.75</v>
       </c>
       <c r="F57" s="18">
         <f>E$57-$B$57/COUNTA($C$1:$F$1)</f>
@@ -2535,15 +2554,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7EB66B5F93AD54F88C68A8B3F2870BB" ma:contentTypeVersion="17" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="8c2a24a36bb82fd1af5ed8c009a064aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2982a79d-ff19-4d7a-967e-033e92b0df6e" xmlns:ns3="b123560b-c09d-4726-86a8-96759d196851" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c02a383944889dc160483fd1e510a099" ns2:_="" ns3:_="">
     <xsd:import namespace="2982a79d-ff19-4d7a-967e-033e92b0df6e"/>
@@ -2792,15 +2802,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3F4124-1599-40F1-988E-E24419BF3D94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2817,4 +2828,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>